--- a/data/income_statement/2digits/total/51_IS_TOTAL.xlsx
+++ b/data/income_statement/2digits/total/51_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>51-Air transport</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>51-Air transport</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>11502775.40423</v>
@@ -965,34 +871,39 @@
         <v>27177740.63879</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>32320971.03588</v>
+        <v>34553005.53952</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>37429340.78676</v>
+        <v>40179384.15064</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>40953758.38670001</v>
+        <v>40953758.3867</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>56568714.18433999</v>
+        <v>56568714.18434001</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>86063458.88253</v>
+        <v>86063458.88253002</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>106329606.42816</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>106356988.82348</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>61156813.688</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>3552014.3002</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>4472285.29982</v>
+        <v>4472285.299819999</v>
       </c>
       <c r="E6" s="48" t="n">
         <v>6035801.4327</v>
@@ -1004,13 +915,13 @@
         <v>4287379.20676</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>4614231.050589999</v>
+        <v>5305763.063319999</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>5265892.4164</v>
+        <v>6343040.783849999</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>6632316.547560001</v>
+        <v>6632316.54756</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>8069727.555969999</v>
@@ -1019,13 +930,18 @@
         <v>9746143.870110001</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>10932410.43359</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>10944415.2291</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>7357519.341</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>7568112.07718</v>
@@ -1043,28 +959,33 @@
         <v>21892307.93251</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>26370187.93921</v>
+        <v>27900457.32484001</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>30566796.28124</v>
+        <v>32226671.6009</v>
       </c>
       <c r="J7" s="48" t="n">
         <v>32355087.71145</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>45973563.36618</v>
+        <v>45973563.36618001</v>
       </c>
       <c r="L7" s="48" t="n">
         <v>73001633.82663001</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>90883776.12120999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>90899153.72102</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>51045170.982</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>382649.02685</v>
@@ -1073,19 +994,19 @@
         <v>268550.20545</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>422640.8027000001</v>
+        <v>422640.8027</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>723349.5570700001</v>
+        <v>723349.55707</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>998053.4995199998</v>
+        <v>998053.49952</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>1336552.04608</v>
+        <v>1346785.15136</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>1596652.08912</v>
+        <v>1609671.76589</v>
       </c>
       <c r="J8" s="48" t="n">
         <v>1966354.12769</v>
@@ -1097,13 +1018,18 @@
         <v>3315681.18579</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>4513419.873360001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>4513419.87336</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>2754123.365</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>104686.7393</v>
@@ -1121,10 +1047,10 @@
         <v>135428.59852</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>120613.69883</v>
+        <v>172131.3507</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>227188.17619</v>
+        <v>296690.64991</v>
       </c>
       <c r="J9" s="47" t="n">
         <v>494097.40464</v>
@@ -1138,35 +1064,40 @@
       <c r="M9" s="47" t="n">
         <v>738536.18044</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="47" t="n">
+        <v>366445.365</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>83897.09121000001</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>73363.82697999998</v>
+        <v>73363.82698</v>
       </c>
       <c r="E10" s="48" t="n">
         <v>69738.88811</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>65094.02660000001</v>
+        <v>65094.0266</v>
       </c>
       <c r="G10" s="48" t="n">
         <v>78301.41742999999</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>100371.23993</v>
+        <v>101078.40769</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>203814.42728</v>
+        <v>206186.67931</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>366758.53196</v>
+        <v>366758.5319600001</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>291456.71236</v>
@@ -1177,11 +1108,16 @@
       <c r="M10" s="48" t="n">
         <v>547616.4394500001</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="48" t="n">
+        <v>264279.802</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>19843.55016</v>
@@ -1199,10 +1135,10 @@
         <v>52873.30702</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>17561.96929</v>
+        <v>61833.78359000001</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>21674.89706</v>
+        <v>79096.41764</v>
       </c>
       <c r="J11" s="48" t="n">
         <v>112522.33203</v>
@@ -1216,14 +1152,19 @@
       <c r="M11" s="48" t="n">
         <v>185450.92492</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>83716.74000000001</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>946.0979299999999</v>
+        <v>946.09793</v>
       </c>
       <c r="D12" s="48" t="n">
         <v>1111.07356</v>
@@ -1238,10 +1179,10 @@
         <v>4253.87407</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>2680.48961</v>
+        <v>9219.15942</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>1698.85185</v>
+        <v>11407.55296</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>14816.54065</v>
@@ -1255,11 +1196,16 @@
       <c r="M12" s="48" t="n">
         <v>5468.81607</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>18448.823</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>11398088.66493</v>
@@ -1277,10 +1223,10 @@
         <v>27042312.04027</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>32200357.33704999</v>
+        <v>34380874.18882</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>37202152.61057</v>
+        <v>39882693.50072999</v>
       </c>
       <c r="J13" s="47" t="n">
         <v>40459660.98206</v>
@@ -1289,19 +1235,24 @@
         <v>56116188.19017</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>85671565.32831</v>
+        <v>85671565.32831001</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>105591070.24772</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>105618452.64304</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>60790368.323</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>9370250.739260001</v>
+        <v>9370250.739259999</v>
       </c>
       <c r="D14" s="47" t="n">
         <v>12231576.47087</v>
@@ -1316,28 +1267,33 @@
         <v>23450579.2912</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>28092346.2169</v>
+        <v>29945056.23928</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>31249307.26416</v>
+        <v>33544503.94576</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>38250430.25531999</v>
+        <v>38250430.25532</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>48498590.94633</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>74646131.11154999</v>
+        <v>74646131.11155</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>88113469.90965</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>88139032.44233002</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>53351880.779</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>0</v>
@@ -1370,13 +1326,18 @@
         <v>144.05713</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>803.1645999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>803.1646</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>189.456</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>105859.85809</v>
@@ -1388,7 +1349,7 @@
         <v>33931.17572</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>42391.32178999999</v>
+        <v>42391.32179000001</v>
       </c>
       <c r="G16" s="48" t="n">
         <v>23904.78851</v>
@@ -1409,16 +1370,21 @@
         <v>142736.93216</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>127711.8377</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>129370.83783</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>117977.636</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>9260082.633169997</v>
+        <v>9260082.633169999</v>
       </c>
       <c r="D17" s="48" t="n">
         <v>12214759.6813</v>
@@ -1430,13 +1396,13 @@
         <v>18938545.07745</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>23424516.55577</v>
+        <v>23424516.55576999</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>28041413.79596</v>
+        <v>29894123.81834</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>31190055.88109</v>
+        <v>33484044.3887</v>
       </c>
       <c r="J17" s="48" t="n">
         <v>38193086.33442</v>
@@ -1448,13 +1414,18 @@
         <v>74429501.3998</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>87978361.6331</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>88002265.16565</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>53233222.35</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>4308.248</v>
@@ -1472,10 +1443,10 @@
         <v>1154.76301</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>7965.868189999999</v>
+        <v>7965.86819</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>654.8596900000001</v>
+        <v>1863.03368</v>
       </c>
       <c r="J18" s="48" t="n">
         <v>8083.32927</v>
@@ -1487,13 +1458,18 @@
         <v>73748.72245999999</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>6593.274250000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>6593.27425</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>491.337</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>2027837.92567</v>
@@ -1505,19 +1481,19 @@
         <v>1058305.21574</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>3271569.711340001</v>
+        <v>3271569.711339999</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>3591732.749070001</v>
+        <v>3591732.74907</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>4108011.120149999</v>
+        <v>4435817.949539999</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>5952845.346410001</v>
+        <v>6338189.55497</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>2209230.72674</v>
+        <v>2209230.726739999</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>7617597.243840001</v>
@@ -1526,13 +1502,18 @@
         <v>11025434.21676</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>17477600.33807</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>17479420.20071</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>7438487.544</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>1702175.84116</v>
@@ -1550,28 +1531,33 @@
         <v>3616454.07466</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>3868691.82995</v>
+        <v>4057768.96192</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>4932616.08452</v>
+        <v>5156864.58243</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>6139902.92426</v>
+        <v>6139906.173889999</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>6696567.42243</v>
+        <v>6696567.422430001</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>9924587.58972</v>
+        <v>9924661.18966</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>12362969.78653</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>12363363.06397</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>8484218.185000001</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>0</v>
@@ -1606,14 +1592,19 @@
       <c r="M21" s="48" t="n">
         <v>180.80087</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>94.789</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>993645.72155</v>
+        <v>993645.7215499999</v>
       </c>
       <c r="D22" s="48" t="n">
         <v>1177608.77816</v>
@@ -1628,10 +1619,10 @@
         <v>2185593.66209</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>2673740.6464</v>
+        <v>2702919.54852</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>3396053.78018</v>
+        <v>3435017.74667</v>
       </c>
       <c r="J22" s="48" t="n">
         <v>3893193.96421</v>
@@ -1640,19 +1631,24 @@
         <v>4468664.500130001</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>6718528.904940001</v>
+        <v>6718528.90494</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>8613957.662950002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>8613996.516790001</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>4899951.548</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>708530.1196100002</v>
+        <v>708530.1196099999</v>
       </c>
       <c r="D23" s="48" t="n">
         <v>861608.4692099999</v>
@@ -1667,67 +1663,77 @@
         <v>1430381.56597</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>1194951.18355</v>
+        <v>1354849.4134</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>1536562.30434</v>
+        <v>1721846.83576</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>2230772.53628</v>
+        <v>2230775.78591</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>2226075.4853</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>3204971.507350001</v>
+        <v>3205045.107290001</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>3748831.32271</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>3749185.74631</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>3584171.848</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>325662.08451</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>-645634.9142800001</v>
+        <v>-645634.91428</v>
       </c>
       <c r="E24" s="47" t="n">
         <v>-1543330.05186</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>413437.6458700001</v>
+        <v>413437.64587</v>
       </c>
       <c r="G24" s="47" t="n">
         <v>-24721.32559</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>239319.2902</v>
+        <v>378048.98762</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>1020229.26189</v>
+        <v>1181324.97254</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-3930672.19752</v>
+        <v>-3930675.44715</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>921029.82141</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>1100846.62704</v>
+        <v>1100773.0271</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>5114630.55154</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>5116057.136740001</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-1045730.641</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>1999336.84438</v>
@@ -1745,13 +1751,13 @@
         <v>2305074.65777</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>6920254.106179998</v>
+        <v>7178213.579019999</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>17682237.59779</v>
+        <v>18756789.40582</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>9620592.351189999</v>
+        <v>9620592.351190001</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>14894812.60586</v>
@@ -1760,13 +1766,18 @@
         <v>61407653.19284</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>29679759.5275</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>29687552.78159</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>38056653.16</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>1133.80223</v>
@@ -1784,10 +1795,10 @@
         <v>22934.63331</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>79181.44071</v>
+        <v>79185.01009000001</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>76847.06821000001</v>
+        <v>76850.40842000001</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>72164.19927</v>
@@ -1799,13 +1810,18 @@
         <v>150349.36941</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>340611.99768</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>340611.9976800001</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>18009.277</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>16.79608</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>12401.205</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>172320.83521</v>
@@ -1862,28 +1883,33 @@
         <v>237588.56944</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>409590.96248</v>
+        <v>414883.99198</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>910632.2123800002</v>
+        <v>918507.7080400001</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>782184.1432999999</v>
+        <v>782184.1433</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>888877.41357</v>
+        <v>888877.4135700001</v>
       </c>
       <c r="L28" s="48" t="n">
         <v>1438190.65607</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>1606529.75559</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>1607557.78553</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>1101404.683</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>12117.11386</v>
@@ -1901,10 +1927,10 @@
         <v>9190.809640000001</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>3894.10517</v>
+        <v>9725.539279999999</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>5220.735900000001</v>
+        <v>13237.68865</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>10759.90411</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>28834.42001</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>15356.658</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>21255.07339</v>
@@ -1940,10 +1971,10 @@
         <v>3866.28593</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>3971.29046</v>
+        <v>3975.14018</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>3639.461540000001</v>
+        <v>3662.955</v>
       </c>
       <c r="J30" s="48" t="n">
         <v>10376.65238</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>4858.337860000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>5503.439</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>1960.16981</v>
@@ -1970,10 +2006,10 @@
         <v>1692.9796</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>5175.432169999999</v>
+        <v>5175.43217</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>53.04855</v>
+        <v>53.04855000000001</v>
       </c>
       <c r="G31" s="48" t="n">
         <v>12316.82974</v>
@@ -1982,10 +2018,10 @@
         <v>158.51365</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>555.75136</v>
+        <v>556.8488599999999</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>69585.86639999998</v>
+        <v>69585.8664</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>6042.17475</v>
@@ -1996,11 +2032,16 @@
       <c r="M31" s="48" t="n">
         <v>80665.53781000001</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>34120.722</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>1735421.56158</v>
@@ -2012,16 +2053,16 @@
         <v>1828252.98135</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>901049.9009599999</v>
+        <v>901049.90096</v>
       </c>
       <c r="G32" s="48" t="n">
         <v>1626950.5606</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>6053020.674070001</v>
+        <v>6287573.31864</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>15928046.11253</v>
+        <v>16935249.01491</v>
       </c>
       <c r="J32" s="48" t="n">
         <v>7492548.41614</v>
@@ -2033,13 +2074,18 @@
         <v>57461722.5384</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>25999245.72128</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>26005987.00383</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>34504292.405</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,32 +2164,37 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>55128.2883</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>77036.9053</v>
+        <v>77036.90530000001</v>
       </c>
       <c r="E35" s="48" t="n">
         <v>241755.04159</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>304793.7143699999</v>
+        <v>304793.71437</v>
       </c>
       <c r="G35" s="48" t="n">
         <v>392226.9691099999</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>370386.5018499999</v>
+        <v>382661.44741</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>757296.2558700001</v>
+        <v>808724.7819399999</v>
       </c>
       <c r="J35" s="48" t="n">
         <v>1182973.16959</v>
@@ -2150,13 +2206,18 @@
         <v>2301364.25397</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>1618996.96119</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>1619020.90279</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>2365564.771</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>1770714.96346</v>
@@ -2171,13 +2232,13 @@
         <v>601538.2146400001</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>2928376.484879999</v>
+        <v>2928376.48488</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>5880086.47759</v>
+        <v>6127734.51312</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>18274317.65608</v>
+        <v>19198339.78685001</v>
       </c>
       <c r="J36" s="47" t="n">
         <v>12787748.38101</v>
@@ -2189,13 +2250,18 @@
         <v>66338215.86957</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>30310323.78111</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>30311076.72723</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>56662442.434</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>6504.393190000001</v>
@@ -2216,7 +2282,7 @@
         <v>19666.88155</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>21237.27636</v>
+        <v>21253.54728</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>76596.21061000001</v>
@@ -2230,11 +2296,16 @@
       <c r="M37" s="48" t="n">
         <v>179089.88501</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>70976.851</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>20659.33864</v>
@@ -2252,10 +2323,10 @@
         <v>30227.17778</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>7903.2722</v>
+        <v>8640.92576</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>8410.970799999999</v>
+        <v>14226.1708</v>
       </c>
       <c r="J38" s="48" t="n">
         <v>48711.18581</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>41592.11063</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>57649.562</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>390.95423</v>
@@ -2291,7 +2367,7 @@
         <v>52.38986</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>44.58442</v>
+        <v>44.58442000000001</v>
       </c>
       <c r="I39" s="48" t="n">
         <v>2284.4776</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>33605.07835</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>7653.22</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>1731949.68696</v>
@@ -2324,16 +2405,16 @@
         <v>1529119.11675</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>526222.2620700001</v>
+        <v>526222.2620699999</v>
       </c>
       <c r="G40" s="48" t="n">
         <v>2829497.50297</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>5789233.586889999</v>
+        <v>6027983.892620001</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>16985034.93228</v>
+        <v>17903225.59213001</v>
       </c>
       <c r="J40" s="48" t="n">
         <v>11232270.06801</v>
@@ -2342,16 +2423,21 @@
         <v>17584337.53076</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>65803261.48023999</v>
+        <v>65803261.48024</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>29432848.07789</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>29433601.02401</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>53940466.388</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>11210.59044</v>
@@ -2441,13 +2537,13 @@
         <v>34710.30142</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>43987.34472000001</v>
+        <v>43987.34472</v>
       </c>
       <c r="G43" s="48" t="n">
         <v>50335.35713</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>63226.52024000001</v>
+        <v>71386.59648000001</v>
       </c>
       <c r="I43" s="48" t="n">
         <v>1257349.99904</v>
@@ -2462,13 +2558,18 @@
         <v>370822.53651</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>623188.6292300002</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>623188.62923</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>2585696.413</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>186107.38716</v>
@@ -2486,10 +2587,10 @@
         <v>601804.20281</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>638487.6029699999</v>
+        <v>653058.93405</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>1049005.32429</v>
+        <v>1078930.81809</v>
       </c>
       <c r="J44" s="47" t="n">
         <v>1229143.06332</v>
@@ -2501,13 +2602,18 @@
         <v>4345903.74175</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>2555248.37912</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>2555278.23067</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>4259098.899</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>161132.52295</v>
@@ -2525,10 +2631,10 @@
         <v>566743.25166</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>605557.9551499999</v>
+        <v>613794.42551</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>1019678.5987</v>
+        <v>1040356.92731</v>
       </c>
       <c r="J45" s="48" t="n">
         <v>1184444.18759</v>
@@ -2540,13 +2646,18 @@
         <v>4260536.88569</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>2496102.09165</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>2496131.9432</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>4204047.759</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>24974.86421</v>
@@ -2555,7 +2666,7 @@
         <v>15894.49095</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>29260.50616999999</v>
+        <v>29260.50617</v>
       </c>
       <c r="F46" s="48" t="n">
         <v>15442.79109</v>
@@ -2564,10 +2675,10 @@
         <v>35060.95115</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>32929.64782</v>
+        <v>39264.50854000001</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>29326.72559</v>
+        <v>38573.89078</v>
       </c>
       <c r="J46" s="48" t="n">
         <v>44698.87573000001</v>
@@ -2581,56 +2692,66 @@
       <c r="M46" s="48" t="n">
         <v>59146.28747</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>55051.14</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>368176.57827</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>-585353.8673400001</v>
+        <v>-585353.8673399999</v>
       </c>
       <c r="E47" s="47" t="n">
         <v>-2039858.46637</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>902855.6920100001</v>
+        <v>902855.69201</v>
       </c>
       <c r="G47" s="47" t="n">
         <v>-1249827.35551</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>640999.3158200001</v>
+        <v>775469.1194700002</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-620856.12069</v>
+        <v>-339156.22658</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-8326971.290659999</v>
+        <v>-8326974.54029</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>-4021058.98125</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-8175619.79144</v>
+        <v>-8175693.39138</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>1928817.91881</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>1937254.96043</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-23910618.814</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>188373.96696</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>297260.6385099999</v>
+        <v>297260.63851</v>
       </c>
       <c r="E48" s="47" t="n">
         <v>431826.1584300001</v>
@@ -2642,13 +2763,13 @@
         <v>216407.25191</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>294446.0090200001</v>
+        <v>306175.65449</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>433394.56734</v>
+        <v>456478.11097</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>415915.61091</v>
+        <v>415915.6109099999</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>1092550.62972</v>
@@ -2657,25 +2778,30 @@
         <v>702818.55776</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>1727097.04793</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>1727097.04827</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>1519110.604</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>20246.04549</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>7735.03921</v>
+        <v>7735.039210000001</v>
       </c>
       <c r="E49" s="48" t="n">
         <v>7808.78025</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>7909.03113</v>
+        <v>7909.031130000001</v>
       </c>
       <c r="G49" s="48" t="n">
         <v>4899.80308</v>
@@ -2684,7 +2810,7 @@
         <v>8849.97409</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>6842.93561</v>
+        <v>6978.55898</v>
       </c>
       <c r="J49" s="48" t="n">
         <v>18306.89254</v>
@@ -2698,20 +2824,25 @@
       <c r="M49" s="48" t="n">
         <v>21812.48135</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>100003.223</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>168127.92147</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>289525.5992999999</v>
+        <v>289525.5993</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>424017.3781800001</v>
+        <v>424017.37818</v>
       </c>
       <c r="F50" s="48" t="n">
         <v>239633.04339</v>
@@ -2720,10 +2851,10 @@
         <v>211507.44883</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>285596.03493</v>
+        <v>297325.6804</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>426551.6317299999</v>
+        <v>449499.55199</v>
       </c>
       <c r="J50" s="48" t="n">
         <v>397608.71837</v>
@@ -2735,13 +2866,18 @@
         <v>672273.48673</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>1705284.56658</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>1705284.56692</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>1419107.381</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>113299.31045</v>
@@ -2759,10 +2895,10 @@
         <v>156422.06806</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>170234.2908</v>
+        <v>176460.86899</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>425515.72222</v>
+        <v>433196.33494</v>
       </c>
       <c r="J51" s="47" t="n">
         <v>407340.59763</v>
@@ -2774,13 +2910,18 @@
         <v>484434.32382</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>720638.26679</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>720752.3666799999</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>1020376.325</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>2400.86368</v>
@@ -2813,22 +2954,27 @@
         <v>23606.49507</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>45121.80673999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>45121.80674</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>123289.758</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>46063.27103</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>8290.220479999998</v>
+        <v>8290.22048</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>6158.301699999999</v>
+        <v>6158.3017</v>
       </c>
       <c r="F53" s="48" t="n">
         <v>13838.91062</v>
@@ -2840,10 +2986,10 @@
         <v>9016.52421</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>26139.7214</v>
+        <v>26402.72323</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>34097.74246</v>
+        <v>34097.74245999999</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>14570.15643</v>
@@ -2854,11 +3000,16 @@
       <c r="M53" s="48" t="n">
         <v>46641.41248000001</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>130564.872</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>64835.17574</v>
@@ -2870,16 +3021,16 @@
         <v>158774.62684</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>74870.50639999998</v>
+        <v>74870.50640000001</v>
       </c>
       <c r="G54" s="48" t="n">
         <v>128794.97404</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>145127.13942</v>
+        <v>151353.71761</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>375247.59008</v>
+        <v>382665.2009699999</v>
       </c>
       <c r="J54" s="48" t="n">
         <v>336416.34159</v>
@@ -2891,19 +3042,24 @@
         <v>422228.2300599999</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>628875.0475699999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>628989.1474600001</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>766521.6949999999</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>443251.23478</v>
+        <v>443251.2347799999</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>-373422.3944999999</v>
+        <v>-373422.3945</v>
       </c>
       <c r="E55" s="47" t="n">
         <v>-1786648.95473</v>
@@ -2915,28 +3071,33 @@
         <v>-1189842.17166</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>765211.0340399999</v>
+        <v>905183.9049699999</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-612977.2755700001</v>
+        <v>-315874.45055</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-8318396.27738</v>
+        <v>-8318399.527009999</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>-3174739.55826</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-7957235.557500001</v>
+        <v>-7957309.157439999</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>2935276.69995</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>2943599.64202</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-23411884.535</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>87894.29203</v>
@@ -2948,16 +3109,16 @@
         <v>8106.38266</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>25963.81848</v>
+        <v>25963.81848000001</v>
       </c>
       <c r="G56" s="47" t="n">
         <v>16506.96822</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>15288.99268</v>
+        <v>46164.78976000001</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>29712.20368</v>
+        <v>76588.11403999999</v>
       </c>
       <c r="J56" s="47" t="n">
         <v>9752.435220000001</v>
@@ -2966,19 +3127,24 @@
         <v>22388.05938</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>55550.21517999999</v>
+        <v>55550.21518</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>146964.08789</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>148488.78547</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>86798.954</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>355356.9427499999</v>
+        <v>355356.94275</v>
       </c>
       <c r="D57" s="47" t="n">
         <v>-391121.69716</v>
@@ -2993,25 +3159,28 @@
         <v>-1206349.13988</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>749922.0413599999</v>
+        <v>859019.1152100001</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-642689.4792500001</v>
+        <v>-392462.56459</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-8328148.7126</v>
+        <v>-8328151.962230001</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>-3197127.61764</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-8012785.772679999</v>
+        <v>-8012859.37262</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>2788312.61206</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>2795110.85655</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-23498683.489</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>121</v>
@@ -3047,25 +3219,28 @@
         <v>192</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>221</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>299</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>